--- a/2020년도 1학기/문서/200422_너는나의친구_Testcase.xlsx
+++ b/2020년도 1학기/문서/200422_너는나의친구_Testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seoungkim/Downloads/capston-idea-1-master/2020년도 1학기/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C03906B-236F-D442-8023-7AF7C97C74E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFFF01D-13C4-3140-B6CB-202EFCA46AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>올바른 DNS를 입력하고 연결확인 버튼을 누르면  알림창이 나오고 O 표시가 되는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O/X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>올바르지 않은 DNS를 입력하고 연결확인 버튼을 누르면  알림창이 나오고 연결 확인 칸에 X 표시가 되는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 역할 설정을 누르면 선택 가능한 역할의 리스트가 출력되는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,6 +476,14 @@
   </si>
   <si>
     <t>메인페이지로 이동한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올바른 DNS를 입력하고 연결확인 버튼을 누르면  알림창이 나오고 저장이 되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올바르지 않은 DNS를 입력하고 연결확인 버튼을 누르면  알림창이 나오는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -932,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="35" customHeight="1">
@@ -955,16 +955,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="35" customHeight="1">
@@ -973,562 +973,562 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="35" customHeight="1">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="35" customHeight="1">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="35" customHeight="1">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="35" customHeight="1">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="35" customHeight="1">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="35" customHeight="1">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="35" customHeight="1">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="35" customHeight="1">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="G13" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="35" customHeight="1">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="G14" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="35" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="35" customHeight="1">
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="35" customHeight="1">
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="35" customHeight="1">
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="35" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="G19" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="35" customHeight="1">
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="35" customHeight="1">
       <c r="B21" s="12"/>
       <c r="C21" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="35" customHeight="1">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="35" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="35" customHeight="1">
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="35" customHeight="1">
       <c r="B25" s="12"/>
       <c r="C25" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="35" customHeight="1">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="35" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="35" customHeight="1">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G28" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="35" customHeight="1">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="35" customHeight="1">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="35" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="35" customHeight="1">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="35" customHeight="1">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="35" customHeight="1">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="G34" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="35" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="35" customHeight="1">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="35" customHeight="1">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="G37" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="35" customHeight="1">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="35" customHeight="1">
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="35" customHeight="1">
